--- a/WithoutSynchronization/bin/test/Book1.xlsx
+++ b/WithoutSynchronization/bin/test/Book1.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danish\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8430" windowHeight="3615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Browser</t>
   </si>
@@ -36,6 +32,24 @@
   </si>
   <si>
     <t>https://www.gmail.com</t>
+  </si>
+  <si>
+    <t>TS1</t>
+  </si>
+  <si>
+    <t>Danish</t>
+  </si>
+  <si>
+    <t>TS2</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>TS3</t>
+  </si>
+  <si>
+    <t>Got it</t>
   </si>
 </sst>
 </file>
@@ -364,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,6 +405,30 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
